--- a/Hardware/2.2c/EpromEmu_2_2c_BoM_DigiKey.xlsx
+++ b/Hardware/2.2c/EpromEmu_2_2c_BoM_DigiKey.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="8520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,21 +93,9 @@
     <t>RES 4.7K OHM 5% 1/8W AXIAL</t>
   </si>
   <si>
-    <t>2N3906D26ZCT-ND</t>
-  </si>
-  <si>
-    <t>2N3906TFR</t>
-  </si>
-  <si>
     <t>TRANS PNP 40V 0.2A TO-92</t>
   </si>
   <si>
-    <t>2N3904-APCT-ND</t>
-  </si>
-  <si>
-    <t>2N3904-AP</t>
-  </si>
-  <si>
     <t>TRANS NPN 40V 0.2A TO92</t>
   </si>
   <si>
@@ -147,12 +135,6 @@
     <t>RES ARRAY 9 RES 10K OHM 10SIP</t>
   </si>
   <si>
-    <t>296-1594-5-ND</t>
-  </si>
-  <si>
-    <t>SN74HC541N</t>
-  </si>
-  <si>
     <t>IC BUFFER NON-INVERT 6V 20DIP</t>
   </si>
   <si>
@@ -430,13 +412,31 @@
   </si>
   <si>
     <t>Emulator Probe</t>
+  </si>
+  <si>
+    <t>2N4401TFCT-ND</t>
+  </si>
+  <si>
+    <t>2N4403TFCT-ND</t>
+  </si>
+  <si>
+    <t>2N4403</t>
+  </si>
+  <si>
+    <t>2N4401</t>
+  </si>
+  <si>
+    <t>296-12813-5-ND</t>
+  </si>
+  <si>
+    <t>SN74HC541E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -445,6 +445,11 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -467,10 +472,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +760,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -824,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -844,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -855,16 +861,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -875,16 +881,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -895,16 +901,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -924,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -944,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -955,16 +961,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -984,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -995,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1015,16 +1021,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1035,16 +1041,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1055,16 +1061,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
+        <v>131</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1075,16 +1081,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1095,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1115,16 +1121,16 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1135,16 +1141,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1155,16 +1161,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1175,16 +1181,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1195,16 +1201,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1215,16 +1221,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1235,16 +1241,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1255,16 +1261,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1275,16 +1281,16 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1295,16 +1301,16 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1315,16 +1321,16 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1335,16 +1341,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1355,16 +1361,16 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1375,16 +1381,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1395,16 +1401,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1415,16 +1421,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1435,16 +1441,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1455,16 +1461,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1475,19 +1481,20 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>